--- a/Trainy-project/Results.xlsx
+++ b/Trainy-project/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC514A-3C6B-4D65-8A25-6BB95297D88E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A498E-8795-4C70-A0C9-05AEAF64BD55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VS Compiler" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Sequence, sec</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Parallel-block, sec</t>
+  </si>
+  <si>
+    <t>k = 250</t>
+  </si>
+  <si>
+    <t>k = 500</t>
+  </si>
+  <si>
+    <t>k = 1000</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
   </si>
 </sst>
 </file>
@@ -97,6 +109,4871 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время выполнения алгоритма</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> при различных размерах блоков</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Compiler'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'VS Compiler'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Compiler'!$B$16:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.058341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5317789999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8661259999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.613036000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.129421000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.312842000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.144945000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.339884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160.35749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC44-4B17-ADBA-6F5EE0B9208F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Compiler'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'VS Compiler'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Compiler'!$C$16:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0783469999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5281440000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9687079999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.263853999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.966546000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.631791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.776015999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.916009000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.12877900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC44-4B17-ADBA-6F5EE0B9208F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Compiler'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'VS Compiler'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Compiler'!$D$16:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6290849999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0945969999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.222935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.924951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.15352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.548932000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116.8973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.71173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.80139700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC44-4B17-ADBA-6F5EE0B9208F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="598899568"/>
+        <c:axId val="598901168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="598899568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598901168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598901168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598899568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ускорение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Compiler'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'VS Compiler'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Compiler'!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0154855571124997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.146560982439728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99683446862812475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1008884829961243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0303672016000591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93333983540028542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0085640788831427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99500804638773821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85699764588497573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-053B-47EA-95A4-D2F7BCCCFF7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Compiler'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'VS Compiler'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Compiler'!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98099220380823615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0088307053226853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98678984754548815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0185962072704293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0023770179571978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3577089501023025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0436981929019571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98304501994092641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0692022903574077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-053B-47EA-95A4-D2F7BCCCFF7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Compiler'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'VS Compiler'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Compiler'!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0376622459847091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99121215202733515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9763153214877579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93765116365772638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1077205546451432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99152441044649564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0831644529001097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94672058313524921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.07845280751409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-053B-47EA-95A4-D2F7BCCCFF7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="660581560"/>
+        <c:axId val="660581880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="660581560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660581880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660581880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660581560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> выполнения алгоритма при разных размерах блоков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Compiler'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$B$16:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.32444499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39366699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8521730000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2835669999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1568120000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9172849999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.328809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.304576000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.343038999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF1-4C9E-AEEF-092DC1EBAA0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Compiler'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$C$16:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.63570599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.342408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.518402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0601260000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0470799999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.426178999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.391408999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.954345000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.737259999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CF1-4C9E-AEEF-092DC1EBAA0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Compiler'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$D$16:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7933889999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0794619999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1633960000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5712890000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.564944000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.308992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.272626000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.414959000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.14285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CF1-4C9E-AEEF-092DC1EBAA0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="598904368"/>
+        <c:axId val="598903408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="598904368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598903408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598903408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598904368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ускорение</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Compiler'!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Acceleration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1683952595971587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3207203042165077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0645323088070064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0424253898678364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.36222161487545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9713505258747732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4735215213001656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6050504066932403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6612903844163212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5C1-492A-A81F-67D06BD7A680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Compiler'!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Acceleration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7519262048808726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9580574609209718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.707501871588295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7707361437244842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3469251957537685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2072419835187249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6528729165924805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.224011679417909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6100130141264062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5C1-492A-A81F-67D06BD7A680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Compiler'!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Acceleration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Compiler'!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4510962206191742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0971587843394108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9810872827926023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3065161031364672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7588442194552543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4957463956080179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2550573701678678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9412193730811689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1419912968428849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5C1-492A-A81F-67D06BD7A680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="459089264"/>
+        <c:axId val="660594360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459089264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660594360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660594360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459089264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1363980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA5F214-7C68-4A17-B7AA-6D4357EE159F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C361E4D8-3DF0-4C48-9086-4B9F34657F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F17040-6CE7-413C-8B90-CDA201F233B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B65C4EA-B5C4-4742-A770-EB660241F30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,10 +5239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,9 +5257,12 @@
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -396,8 +5276,15 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -419,8 +5306,17 @@
       <c r="H2">
         <v>1000</v>
       </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -445,8 +5341,23 @@
       <c r="H3">
         <v>1.6290849999999999</v>
       </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <f>C3/F3</f>
+        <v>1.0154855571124997</v>
+      </c>
+      <c r="L3">
+        <f>D3/G3</f>
+        <v>0.98099220380823615</v>
+      </c>
+      <c r="M3">
+        <f>E3/H3</f>
+        <v>1.0376622459847091</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1500</v>
       </c>
@@ -471,8 +5382,23 @@
       <c r="H4">
         <v>2.0945969999999998</v>
       </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <f>C4/F4</f>
+        <v>1.146560982439728</v>
+      </c>
+      <c r="L4">
+        <f>D4/G4</f>
+        <v>1.0088307053226853</v>
+      </c>
+      <c r="M4">
+        <f>E4/H4</f>
+        <v>0.99121215202733515</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -497,8 +5423,23 @@
       <c r="H5">
         <v>16.222935</v>
       </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <f>C5/F5</f>
+        <v>0.99683446862812475</v>
+      </c>
+      <c r="L5">
+        <f>D5/G5</f>
+        <v>0.98678984754548815</v>
+      </c>
+      <c r="M5">
+        <f>E5/H5</f>
+        <v>0.9763153214877579</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2500</v>
       </c>
@@ -523,8 +5464,23 @@
       <c r="H6">
         <v>16.924951</v>
       </c>
+      <c r="J6">
+        <v>2500</v>
+      </c>
+      <c r="K6">
+        <f>C6/F6</f>
+        <v>1.1008884829961243</v>
+      </c>
+      <c r="L6">
+        <f>D6/G6</f>
+        <v>1.0185962072704293</v>
+      </c>
+      <c r="M6">
+        <f>E6/H6</f>
+        <v>0.93765116365772638</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3000</v>
       </c>
@@ -549,8 +5505,23 @@
       <c r="H7">
         <v>41.15352</v>
       </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <f>C7/F7</f>
+        <v>1.0303672016000591</v>
+      </c>
+      <c r="L7">
+        <f>D7/G7</f>
+        <v>1.0023770179571978</v>
+      </c>
+      <c r="M7">
+        <f>E7/H7</f>
+        <v>1.1077205546451432</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3500</v>
       </c>
@@ -575,8 +5546,23 @@
       <c r="H8">
         <v>50.548932000000001</v>
       </c>
+      <c r="J8">
+        <v>3500</v>
+      </c>
+      <c r="K8">
+        <f>C8/F8</f>
+        <v>0.93333983540028542</v>
+      </c>
+      <c r="L8">
+        <f>D8/G8</f>
+        <v>1.3577089501023025</v>
+      </c>
+      <c r="M8">
+        <f>E8/H8</f>
+        <v>0.99152441044649564</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -601,8 +5587,23 @@
       <c r="H9">
         <v>116.8973</v>
       </c>
+      <c r="J9">
+        <v>4000</v>
+      </c>
+      <c r="K9">
+        <f>C9/F9</f>
+        <v>1.0085640788831427</v>
+      </c>
+      <c r="L9">
+        <f>D9/G9</f>
+        <v>1.0436981929019571</v>
+      </c>
+      <c r="M9">
+        <f>E9/H9</f>
+        <v>1.0831644529001097</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4500</v>
       </c>
@@ -627,8 +5628,23 @@
       <c r="H10">
         <v>121.71173</v>
       </c>
+      <c r="J10">
+        <v>4500</v>
+      </c>
+      <c r="K10">
+        <f>C10/F10</f>
+        <v>0.99500804638773821</v>
+      </c>
+      <c r="L10">
+        <f>D10/G10</f>
+        <v>0.98304501994092641</v>
+      </c>
+      <c r="M10">
+        <f>E10/H10</f>
+        <v>0.94672058313524921</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5000</v>
       </c>
@@ -653,22 +5669,176 @@
       <c r="H11">
         <v>207.80139700000001</v>
       </c>
+      <c r="J11">
+        <v>5000</v>
+      </c>
+      <c r="K11">
+        <f>C11/F11</f>
+        <v>0.85699764588497573</v>
+      </c>
+      <c r="L11">
+        <f>D11/G11</f>
+        <v>1.0692022903574077</v>
+      </c>
+      <c r="M11">
+        <f>E11/H11</f>
+        <v>1.07845280751409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>1.058341</v>
+      </c>
+      <c r="C16">
+        <v>1.0783469999999999</v>
+      </c>
+      <c r="D16">
+        <v>1.6290849999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>3.5317789999999998</v>
+      </c>
+      <c r="C17">
+        <v>3.5281440000000002</v>
+      </c>
+      <c r="D17">
+        <v>2.0945969999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>8.8661259999999995</v>
+      </c>
+      <c r="C18">
+        <v>8.9687079999999995</v>
+      </c>
+      <c r="D18">
+        <v>16.222935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2500</v>
+      </c>
+      <c r="B19">
+        <v>16.613036000000001</v>
+      </c>
+      <c r="C19">
+        <v>16.263853999999998</v>
+      </c>
+      <c r="D19">
+        <v>16.924951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3000</v>
+      </c>
+      <c r="B20">
+        <v>29.129421000000001</v>
+      </c>
+      <c r="C20">
+        <v>28.966546000000001</v>
+      </c>
+      <c r="D20">
+        <v>41.15352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3500</v>
+      </c>
+      <c r="B21">
+        <v>48.312842000000003</v>
+      </c>
+      <c r="C21">
+        <v>46.631791</v>
+      </c>
+      <c r="D21">
+        <v>50.548932000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4000</v>
+      </c>
+      <c r="B22">
+        <v>72.144945000000007</v>
+      </c>
+      <c r="C22">
+        <v>70.776015999999998</v>
+      </c>
+      <c r="D22">
+        <v>116.8973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4500</v>
+      </c>
+      <c r="B23">
+        <v>101.339884</v>
+      </c>
+      <c r="C23">
+        <v>96.916009000000003</v>
+      </c>
+      <c r="D23">
+        <v>121.71173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24">
+        <v>160.35749999999999</v>
+      </c>
+      <c r="C24">
+        <v>135.12877900000001</v>
+      </c>
+      <c r="D24">
+        <v>207.80139700000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F62617-1192-4ADD-A79F-C9AEE7956519}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +5853,7 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,8 +5867,14 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -720,8 +5896,17 @@
       <c r="H2">
         <v>1000</v>
       </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -746,8 +5931,23 @@
       <c r="H3">
         <v>1.7933889999999999</v>
       </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <f>C3/F3</f>
+        <v>3.1683952595971587</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:M3" si="0">D3/G3</f>
+        <v>1.7519262048808726</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1.4510962206191742</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1500</v>
       </c>
@@ -772,8 +5972,23 @@
       <c r="H4">
         <v>2.0794619999999999</v>
       </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="1">C4/F4</f>
+        <v>9.3207203042165077</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L11" si="2">D4/G4</f>
+        <v>2.9580574609209718</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M11" si="3">E4/H4</f>
+        <v>1.0971587843394108</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -798,8 +6013,23 @@
       <c r="H5">
         <v>8.1633960000000005</v>
       </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>5.0645323088070064</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>2.707501871588295</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1.9810872827926023</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2500</v>
       </c>
@@ -824,8 +6054,23 @@
       <c r="H6">
         <v>7.5712890000000002</v>
       </c>
+      <c r="J6">
+        <v>2500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4.0424253898678364</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>3.7707361437244842</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>2.3065161031364672</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3000</v>
       </c>
@@ -850,8 +6095,23 @@
       <c r="H7">
         <v>16.564944000000001</v>
       </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>4.36222161487545</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>3.3469251957537685</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>2.7588442194552543</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3500</v>
       </c>
@@ -876,8 +6136,23 @@
       <c r="H8">
         <v>16.308992</v>
       </c>
+      <c r="J8">
+        <v>3500</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>4.9713505258747732</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>4.2072419835187249</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>3.4957463956080179</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -902,8 +6177,23 @@
       <c r="H9">
         <v>56.272626000000002</v>
       </c>
+      <c r="J9">
+        <v>4000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>4.4735215213001656</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>2.6528729165924805</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>2.2550573701678678</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4500</v>
       </c>
@@ -928,8 +6218,23 @@
       <c r="H10">
         <v>39.414959000000003</v>
       </c>
+      <c r="J10">
+        <v>4500</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>6.6050504066932403</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2.224011679417909</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>3.9412193730811689</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5000</v>
       </c>
@@ -954,12 +6259,174 @@
       <c r="H11">
         <v>113.14285</v>
       </c>
+      <c r="J11">
+        <v>5000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>3.6612903844163212</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>2.6100130141264062</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>2.1419912968428849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>0.32444499999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.63570599999999999</v>
+      </c>
+      <c r="D16">
+        <v>1.7933889999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>0.39366699999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.342408</v>
+      </c>
+      <c r="D17">
+        <v>2.0794619999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>1.8521730000000001</v>
+      </c>
+      <c r="C18">
+        <v>3.518402</v>
+      </c>
+      <c r="D18">
+        <v>8.1633960000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2500</v>
+      </c>
+      <c r="B19">
+        <v>4.2835669999999997</v>
+      </c>
+      <c r="C19">
+        <v>5.0601260000000003</v>
+      </c>
+      <c r="D19">
+        <v>7.5712890000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3000</v>
+      </c>
+      <c r="B20">
+        <v>7.1568120000000004</v>
+      </c>
+      <c r="C20">
+        <v>9.0470799999999993</v>
+      </c>
+      <c r="D20">
+        <v>16.564944000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3500</v>
+      </c>
+      <c r="B21">
+        <v>9.9172849999999997</v>
+      </c>
+      <c r="C21">
+        <v>11.426178999999999</v>
+      </c>
+      <c r="D21">
+        <v>16.308992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4000</v>
+      </c>
+      <c r="B22">
+        <v>17.328809</v>
+      </c>
+      <c r="C22">
+        <v>28.391408999999999</v>
+      </c>
+      <c r="D22">
+        <v>56.272626000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4500</v>
+      </c>
+      <c r="B23">
+        <v>25.304576000000001</v>
+      </c>
+      <c r="C23">
+        <v>45.954345000000004</v>
+      </c>
+      <c r="D23">
+        <v>39.414959000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24">
+        <v>38.343038999999997</v>
+      </c>
+      <c r="C24">
+        <v>57.737259999999999</v>
+      </c>
+      <c r="D24">
+        <v>113.14285</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trainy-project/Results.xlsx
+++ b/Trainy-project/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A498E-8795-4C70-A0C9-05AEAF64BD55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120D05C-8407-40E3-ADB6-B1AB7386D91E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VS Compiler" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>Sequence, sec</t>
   </si>
@@ -51,6 +51,9 @@
   <si>
     <t>Acceleration</t>
   </si>
+  <si>
+    <t>Cash level3 = 8MB</t>
+  </si>
 </sst>
 </file>
 
@@ -65,12 +68,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -94,6 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5241,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5345,15 +5355,15 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <f>C3/F3</f>
+        <f t="shared" ref="K3:K11" si="0">C3/F3</f>
         <v>1.0154855571124997</v>
       </c>
       <c r="L3">
-        <f>D3/G3</f>
+        <f t="shared" ref="L3:L11" si="1">D3/G3</f>
         <v>0.98099220380823615</v>
       </c>
       <c r="M3">
-        <f>E3/H3</f>
+        <f t="shared" ref="M3:M11" si="2">E3/H3</f>
         <v>1.0376622459847091</v>
       </c>
     </row>
@@ -5386,15 +5396,15 @@
         <v>1500</v>
       </c>
       <c r="K4">
-        <f>C4/F4</f>
+        <f t="shared" si="0"/>
         <v>1.146560982439728</v>
       </c>
       <c r="L4">
-        <f>D4/G4</f>
+        <f t="shared" si="1"/>
         <v>1.0088307053226853</v>
       </c>
       <c r="M4">
-        <f>E4/H4</f>
+        <f t="shared" si="2"/>
         <v>0.99121215202733515</v>
       </c>
     </row>
@@ -5427,15 +5437,15 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <f>C5/F5</f>
+        <f t="shared" si="0"/>
         <v>0.99683446862812475</v>
       </c>
       <c r="L5">
-        <f>D5/G5</f>
+        <f t="shared" si="1"/>
         <v>0.98678984754548815</v>
       </c>
       <c r="M5">
-        <f>E5/H5</f>
+        <f t="shared" si="2"/>
         <v>0.9763153214877579</v>
       </c>
     </row>
@@ -5468,15 +5478,15 @@
         <v>2500</v>
       </c>
       <c r="K6">
-        <f>C6/F6</f>
+        <f t="shared" si="0"/>
         <v>1.1008884829961243</v>
       </c>
       <c r="L6">
-        <f>D6/G6</f>
+        <f t="shared" si="1"/>
         <v>1.0185962072704293</v>
       </c>
       <c r="M6">
-        <f>E6/H6</f>
+        <f t="shared" si="2"/>
         <v>0.93765116365772638</v>
       </c>
     </row>
@@ -5509,15 +5519,15 @@
         <v>3000</v>
       </c>
       <c r="K7">
-        <f>C7/F7</f>
+        <f t="shared" si="0"/>
         <v>1.0303672016000591</v>
       </c>
       <c r="L7">
-        <f>D7/G7</f>
+        <f t="shared" si="1"/>
         <v>1.0023770179571978</v>
       </c>
       <c r="M7">
-        <f>E7/H7</f>
+        <f t="shared" si="2"/>
         <v>1.1077205546451432</v>
       </c>
     </row>
@@ -5550,15 +5560,15 @@
         <v>3500</v>
       </c>
       <c r="K8">
-        <f>C8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.93333983540028542</v>
       </c>
       <c r="L8">
-        <f>D8/G8</f>
+        <f t="shared" si="1"/>
         <v>1.3577089501023025</v>
       </c>
       <c r="M8">
-        <f>E8/H8</f>
+        <f t="shared" si="2"/>
         <v>0.99152441044649564</v>
       </c>
     </row>
@@ -5591,15 +5601,15 @@
         <v>4000</v>
       </c>
       <c r="K9">
-        <f>C9/F9</f>
+        <f t="shared" si="0"/>
         <v>1.0085640788831427</v>
       </c>
       <c r="L9">
-        <f>D9/G9</f>
+        <f t="shared" si="1"/>
         <v>1.0436981929019571</v>
       </c>
       <c r="M9">
-        <f>E9/H9</f>
+        <f t="shared" si="2"/>
         <v>1.0831644529001097</v>
       </c>
     </row>
@@ -5632,15 +5642,15 @@
         <v>4500</v>
       </c>
       <c r="K10">
-        <f>C10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.99500804638773821</v>
       </c>
       <c r="L10">
-        <f>D10/G10</f>
+        <f t="shared" si="1"/>
         <v>0.98304501994092641</v>
       </c>
       <c r="M10">
-        <f>E10/H10</f>
+        <f t="shared" si="2"/>
         <v>0.94672058313524921</v>
       </c>
     </row>
@@ -5673,15 +5683,15 @@
         <v>5000</v>
       </c>
       <c r="K11">
-        <f>C11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.85699764588497573</v>
       </c>
       <c r="L11">
-        <f>D11/G11</f>
+        <f t="shared" si="1"/>
         <v>1.0692022903574077</v>
       </c>
       <c r="M11">
-        <f>E11/H11</f>
+        <f t="shared" si="2"/>
         <v>1.07845280751409</v>
       </c>
     </row>
@@ -5694,6 +5704,9 @@
       </c>
       <c r="D15" t="s">
         <v>6</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -5829,7 +5842,8 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5837,7 +5851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F62617-1192-4ADD-A79F-C9AEE7956519}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
